--- a/data/Students_IG2.xlsx
+++ b/data/Students_IG2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Antonijev</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Septembar.1</t>
+  </si>
+  <si>
+    <t>Septembar.2</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +616,7 @@
         <v>65</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>60</v>
